--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01-2/script/vfanexo.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01-2/script/vfanexo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,236 +483,284 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág. 121</t>
+          <t>Pág. 45</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Finalidade do Anexo de ComSoc</t>
+          <t>Conceito de Força Componente</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A finalidade do Anexo D é orientar as ações de Comunicação Social do Ministério da Defesa e das Forças Armadas por ocasião da Campanha ou Operação.</t>
+          <t>Por Força Componente entende-se a Força constituída de meios das Forças Singulares, adjudicados a um Comando Operacional, podendo ser organizada de forma singular ou conjunta.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A finalidade do Anexo D restringe-se a orientar as ações táticas de imprensa apenas das Forças Singulares, sem envolver o Ministério da Defesa.</t>
+          <t>Por Força Componente entende-se exclusivamente a Força organizada de forma singular, sendo vedada a sua organização de forma conjunta.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Conforme o **item 1**, a finalidade é orientar as ações de Comunicação Social do Ministério da Defesa e das Forças Armadas.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>Segundo o **item 4.1.3.1**, da Pág. 45, a Força Componente pode ser organizada de forma singular ou conjunta.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág. 121</t>
+          <t>Pág. 45</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Condicionantes de Planejamento</t>
+          <t>Características da Força-Tarefa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>O plano de comunicação social da ASCOM-MD e diretrizes de órgãos afins, como a SECOM-PR, devem ser considerados nos planejamentos operacionais e táticos.</t>
+          <t>A Força-Tarefa é organizada com comando próprio para o cumprimento de missão específica, possuindo objetivos e duração limitados no tempo.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O planejamento operacional deve ignorar diretrizes de órgãos externos como a SECOM-PR, focando exclusivamente na doutrina militar interna.</t>
+          <t>A Força-Tarefa caracteriza-se por ser uma estrutura permanente, com duração indeterminada e sem comando próprio, subordinada diretamente ao nível estratégico.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Segundo o **item 3.1**, diretrizes de órgãos afins, como SECOM-PR, deverão ser considerados nos planejamentos.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>Conforme o **item 4.1.3.3**, da Pág. 45, a Força-Tarefa tem comando próprio e duração limitada no tempo.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág. 121</t>
+          <t>Pág. 46</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Públicos de Interesse</t>
+          <t>Vantagens das Forças Conjuntas Componentes</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Os públicos de interesse para a Campanha podem incluir a população do país oponente e formadores de opinião internacionais.</t>
+          <t>A organização por Forças Conjuntas Componentes proporciona maior flexibilidade e sinergia, devendo ser a forma de organização priorizada sempre que possível.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Os públicos de interesse limitam-se estritamente à população brasileira e ao público interno das Forças Armadas, vedada a interação com o público oponente.</t>
+          <t>A organização por Forças Conjuntas Componentes reduz a sinergia e deve ser preterida em favor da organização por Forças Singulares Componentes em todas as situações.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>De acordo com o **item 4, alíneas "b" e "e"**, relacionam-se como públicos a população do país oponente e formadores de opinião internacionais.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>De acordo com o **item 4.1.5**, da Pág. 46, a organização por Forças Conjuntas aumenta a sinergia e deve ser priorizada sempre que possível.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág. 122</t>
+          <t>Pág. 48</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Objetivos Estratégicos de ComSoc</t>
+          <t>Atribuições do Comandante Operacional no Nível Operacional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Um dos objetivos estratégicos é contribuir para potencializar a dissuasão de ações que comprometam o sucesso da Campanha/Operação.</t>
+          <t>Compete ao Comandante Operacional estabelecer e disseminar as Regras de Engajamento no Nível Operacional e aprovar a Lista de Necessidades Final (LNF).</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A Comunicação Social não possui papel na dissuasão, devendo focar apenas na divulgação de fatos consumados e no entretenimento da tropa.</t>
+          <t>É vedado ao Comandante Operacional estabelecer Regras de Engajamento ou aprovar a Lista de Necessidades Final, sendo estas atribuições do Ministério da Defesa.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Conforme o **item 5, alínea "b"**, um dos objetivos é contribuir para potencializar a dissuasão de ações que comprometam o sucesso.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>Segundo o **item 4.3.5**, alíneas (d) e (i), da Pág. 48, são atribuições do Cmt Op estabelecer as RE e aprovar a LNF.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág. 122</t>
+          <t>Pág. 48</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ações Estratégicas e Público Interno</t>
+          <t>Assessoramento do Comandante de Força Componente</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Uma das ações estratégicas é atuar diretamente junto aos militares envolvidos, promovendo a valorização dessa participação.</t>
+          <t>O Comandante de Força Componente deve assessorar seu comandante superior quanto ao emprego de seus meios, informando sobre questões jurídicas, técnicas, táticas e logísticas.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>As ações estratégicas devem evitar o público interno, focando a divulgação apenas para a sociedade civil externa.</t>
+          <t>O Comandante de Força Componente deve restringir seu assessoramento apenas a questões táticas, não lhe cabendo informar sobre aspectos jurídicos ou logísticos.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Segundo o **item 6, alínea "d"**, deve-se atuar diretamente junto aos militares envolvidos para promover a valorização da participação.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>Conforme o **item 4.4.1**, alínea (a), da Pág. 48, o assessoramento deve incluir questões de caráter jurídico, técnico, tático e logístico.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág. 122</t>
+          <t>Pág. 49</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ideias-Força</t>
+          <t>Responsabilidades do Comandante Logístico Componente na SEGAR</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Uma das ideias-força orientadoras é a de que as Forças Armadas estão sempre prontas para garantir a defesa e a segurança nacional.</t>
+          <t>É atribuição do Comandante Logístico Componente coordenar as atividades relacionadas à Segurança de Área de Retaguarda (SEGAR).</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>As ideias-força devem enfatizar que as Forças Armadas atuam apenas mediante improvisação diante de crises inesperadas.</t>
+          <t>A coordenação das atividades relacionadas à Segurança de Área de Retaguarda (SEGAR) é responsabilidade exclusiva das Forças Singulares, e não do Comandante Logístico Componente.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>De acordo com o **item 7, alínea "b"**, uma ideia-força é que as FA estão sempre prontas para garantir a defesa e a segurança nacional.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>De acordo com o **item 4.5.1**, alínea (d), da Pág. 49, compete ao C Log Cte coordenar as atividades da SEGAR.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -722,36 +770,44 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág. 123</t>
+          <t>Pág 37</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Indicação de Porta-Voz</t>
+          <t>Etapa 1 do PPC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A indicação do porta-voz é prerrogativa do Comandante da Operação, devendo ser considerada a competência técnica para a comunicação.</t>
+          <t>Na Etapa 1 do PPC, o Comandante Operacional e seu EMCj estudam o problema em todas as dimensões e, ao final, escolhem uma Linha de Ação, caracterizada na Decisão do Comandante e, sempre que possível, em um Conceito Preliminar da Operação (CPO).</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A indicação do porta-voz deve ser feita exclusivamente por critério de antiguidade, sendo irrelevante a competência técnica para a comunicação.</t>
+          <t>Na Etapa 1 do PPC, uma ideia geral quanto à forma como a LA escolhida será implementada, denominada Diretiva de Planejamento (DIPLAN)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Conforme o **item 9, alínea "a"**, a indicação é prerrogativa do Comandante da Operação, considerada a competência técnica.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>Conforme o item 4.2.1.1, da página 37, a Etapa 1 é a base do processo e culmina na escolha da LA e no Conceito Preliminar da Operação.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -761,36 +817,44 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág. 123</t>
+          <t>Pág 37</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Princípios da Comunicação Social</t>
+          <t>Etapa 2 do PPC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nas atividades de Comunicação Social, devem ser considerados princípios como unicidade de discurso, transparência e pró-atividade.</t>
+          <t>Na Etapa 2 do PPC, o Comandante desenvolve o Conceito da Operação e elabora os documentos para transmissão das ordens aos subordinados e a outros comandos interessados.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A Comunicação Social militar deve pautar-se pela fragmentação do discurso e reatividade, agindo apenas após questionamentos da imprensa.</t>
+          <t>Na Etapa 2 do PPC, o Comandante seleciona inicialmente a Linha de Ação, mas sem desenvolver o Conceito da Operação nem elaborar ordens.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Segundo o **item 9, alínea "b"**, consideram-se princípios a pró-atividade, unicidade de discurso e transparência.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>Segundo o item 4.2.1.2, da página 37, a Etapa 2 é destinada ao desenvolvimento do Conceito da Operação e à elaboração das ordens.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -800,36 +864,2181 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág. 123</t>
+          <t>Pág 37</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Etapa 3 do PPC</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Na Etapa 3 do PPC, o Comandante verifica o desenvolvimento da operação e, se necessário, introduz alterações nos planos e ordens anteriormente estabelecidos.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Na Etapa 3 do PPC, é vedada qualquer alteração nos planos e ordens, devendo a operação seguir rigidamente o planejamento inicial.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>De acordo com o item 4.2.1.3, da página 37, a Etapa 3 prevê o controle da operação e a introdução de ajustes, quando necessários.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pág 61</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Requisitos nas Linhas de Ação</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Embora as ações para o seu atendimento possam estar inter-relacionadas, os Requisitos deverão ser estudados separadamente, no grau de detalhamento necessário ao nível do planejamento em curso, de modo a assegurar que a totalidade das necessidades inerentes a cada LA seja atendida.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Embora as ações para o seu atendimento possam estar inter-relacionadas, os Requisitos deverão ser analisados de forma conjunta e indistinta, independentemente do nível de planejamento, para garantir rapidez na elaboração da LA.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.4.3.5.5, da página 61, os Requisitos devem ser estudados separadamente, no grau de detalhamento compatível com o nível de planejamento.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pág 59</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Definição de Efeito no Planejamento Operacional</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Efeito pode ser definido como uma alteração no estado de um sistema (ou elemento de um sistema) resultante de uma ou mais ações e que contribui para a obtenção ou atingimento de um Ponto Decisivo, sendo mensurável e expressando uma situação desejada no futuro.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Efeito pode ser definido como uma alteração no estado de um sistema (ou elemento de um sistema) resultante de uma ou mais ações e que contribui para a obtenção ou atingimento de um Ponto Decisivo. Um efeito deve ser mensurável, porém não expressa uma situação desejada no futuro.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Segundo o item **5.4.3.3.3**, da página 59, o efeito é mensurável e expressa uma situação desejada no futuro, contribuindo para o atingimento de um Ponto Decisivo (Ex: Fluxo logístico inimigo degradado).</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pág 61</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Limitações ao Planejamento e Adequabilidade da LA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ao realizar esta prova, o planejador verificará as limitações ao planejamento, identificadas por ocasião da análise da Missão e da emissão da Diretriz de Planejamento. Caso uma LA infrinja tais limitações, a mesma será considerada inadequada</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ao realizar esta prova, o planejador verificará as limitações ao planejamento, identificadas por ocasião da análise da Missão e da emissão da Diretriz de Planejamento. Caso uma LA infrinja tais limitações, a mesma será considerada inaceitável.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Conforme o item **5.4.3.6.4**, da página 61, a infração às limitações ao planejamento torna a LA "inadequada" e não "inaceitável".</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pág 62</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Critério de Praticabilidade das Linhas de Ação</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Uma LA será considerada PRATICÁVEL se puder ser implementada com as forças, apoio e tecnologia disponíveis, sem levar em consideração a oposição esperada por parte do Inimigo e os demais óbices, incluindo aqueles relacionados aos custos financeiros. Isso será conseguido analisando-se criteriosamente os Requisitos inerentes à LA, com ênfase nos aspectos logísticos envolvidos, num nível de detalhamento suficiente para permitir ao Comandante avaliar a capacidade de implementação da LA.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Uma LA será considerada PRATICÁVEL se puder ser implementada com as forças, apoio e tecnologia disponíveis, levando-se em consideração a oposição esperada por parte do Inimigo e os demais óbices, incluindo aqueles relacionados aos custos financeiros. Isso será conseguido analisando-se criteriosamente os Requisitos inerentes à LA, com ênfase nos aspectos logísticos envolvidos, num nível de detalhamento suficiente para permitir ao Comandante avaliar a capacidade de implementação da LA.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.4.3.6.5, da página 62, uma LA é considerada praticável quando pode ser implementada com as forças, apoio e tecnologia disponíveis, levando-se (parte errada, na resposta falsa consta  "sem levar em conta") em consideração a oposição esperada do inimigo e os demais óbices, inclusive os custos financeiros, mediante a análise criteriosa dos Requisitos, com ênfase nos aspectos logísticos.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pág 62</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Critério das Linhas de Ação</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Uma LA será considerada ADEQUADA se os prováveis resultados compensarem os riscos e custos estimados. As perdas prováveis, determinadas na prova de praticabilidade, servirão de base para esta prova e são avaliadas à vista das tarefas e dos propósitos da missão. Tais perdas referem-se à pessoal, material, tempo e posição.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Uma LA será considerada ACEITÁVEL se os prováveis resultados compensarem os riscos e custos estimados. As perdas prováveis, determinadas na prova de praticabilidade, servirão de base para esta prova e são avaliadas à vista das tarefas e dos propósitos da missão. Tais perdas referem-se à pessoal, material, tempo e posição.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.4.3.6.6, da página 62, uma LA é considerada aceitável (e não ADEQUADA, conforme a respsota) quando os prováveis resultados compensam os riscos e custos estimados, sendo as perdas prováveis — relativas a pessoal, material, tempo e posição — avaliadas à luz das tarefas e dos propósitos da missão, com base na prova de praticabilidade.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pág 62</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Julgamento Pessoal na Avaliação das Linhas de Ação</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Praticabilidade e aceitabilidade dependem de julgamento pessoal e, portanto, dois ou mais comandantes poderiam chegar a conclusões divergentes. Assim, uma determinada LA pode parecer perfeitamente mais aceitável para um Comandante de perfil ousado e agressivo, mas menos aceitável para outro mais cauteloso.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Praticabilidade e adequabilidadedependem de julgamento pessoal e, portanto, dois ou mais comandantes poderiam chegar a conclusões divergentes. Assim, uma determinada LA pode parecer perfeitamente mais aceitável para um Comandante de perfil ousado e agressivo, mas menos aceitável para outro mais cauteloso.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Segundo o item 5.4.3.6.7, da página 62, os conceitos de praticabilidade e aceitabilidade (e não adequabilidade) dependem de julgamento pessoal, razão pela qual comandantes com perfis distintos podem chegar a conclusões divergentes quanto à mesma Linha de Ação.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pág 49</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fase 2 do Exame de Situação Operacional, no que tange às “características da Área de Responsabilidade”</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>O estudo da hidrografia da Área de Responsabilidade inclui a análise de cursos d’água que possam afetar a navegação, as operações de transposição e a progressão da tropa no terreno.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>O estudo da hidrografia da Área de Responsabilidade limita-se apenas à influência de oceanos e águas interiores nas Operações Navais, não abrangendo rios ou cursos d’água relevantes ao terreno.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Conforme o item **5.3.4.1, alínea a**, da página 49, a hidrografia inclui cursos d’água que influenciam a transposição e a progressão da tropa no terreno.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pág 50</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fase 2 do Exame de Situação Operacional, no que tange às “características da Área de Responsabilidade”</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Os aspectos do terreno e da topografia devem ser estudados no nível de detalhamento adequado ao escalão considerado, destacando obstáculos, acidentes notáveis e direções de atuação.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Os aspectos do terreno e da topografia são analisados apenas no nível tático, não sendo relevantes ao planejamento operacional.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Segundo o item **5.3.4.1, alínea b**, da página 50, o terreno e a topografia devem ser analisados conforme o escalão, inclusive no nível operacional.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pág 50</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fase 2 do Exame de Situação Operacional, no que tange às “características da Área de Responsabilidade”</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>As informações de clima e meteorologia podem variar desde uma análise geral até estudos detalhados, conforme os efeitos esperados nas operações e nas atividades logísticas.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>As informações de clima e meteorologia restringem-se sempre a análises gerais, sendo desnecessários estudos detalhados no planejamento operacional.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>De acordo com o item **5.3.4.1, alínea c**, da página 50, a análise pode ir de avaliações gerais a estudos detalhados, conforme a operação.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pág 51</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fase 2 do Exame de Situação Operacional, no que tange às “características da Área de Responsabilidade”</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>O estudo das linhas de transporte e suprimento abrange as rotas existentes, bem como pontos focais, entroncamentos, pontes e outras infraestruturas relevantes.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>O estudo das linhas de transporte e suprimento deve se ater somente às rotas existentes, desconsiderando pontos focais e obras de infraestrutura.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Conforme o item **5.3.4.1, alínea f**, da página 51, devem ser consideradas rotas e demais elementos de infraestrutura que influenciem o transporte e o suprimento.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pág 51</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fase 2 do Exame de Situação Operacional, no que tange às “características da Área de Responsabilidade”</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Os aspectos relacionados às condições sanitárias e de saúde da população e das forças envolvidas devem ser considerados no nível operacional.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Os aspectos relacionados às condições sanitárias não são considerados no nível operacional, limitando-se apenas ao nível tático.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Segundo o item **5.3.4.1, alínea g**, da página 51, as condições sanitárias e seus efeitos devem ser analisados no planejamento operacional.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pág 50</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fase 2 do Exame de Situação Operacional, no que tange às “características da Área de Responsabilidade”</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Os períodos diurnos e noturnos são extremamente importantes no planejamento, influenciando equipamentos, táticas e atividades logísticas.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Os períodos diurnos e noturnos têm pouca relevância no planejamento operacional, não influenciando a escolha de equipamentos ou atividades logísticas.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Conforme o item **5.3.4.1, alínea d**, da página 50, os períodos diurnos e noturnos impactam diretamente equipamentos, táticas e logística.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pág 63</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Disseminação do Conceito Preliminar da Operação (CPO)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>O CPO não se limita a ser um documento de uso interno do EMCj e pode, sempre que possível e adequado, após aprovação do nível estratégico, ser disseminado às Forças Componentes sob a forma de uma Ordem Preparatória.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>O CPO não se limita a ser um documento de uso interno do EMCj, podendo ser disseminado diretamente aos níveis superiores sob a forma de uma Ordem Preparatória.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Conforme o item **5.7.4**, da página 63, o CPO pode ser disseminado às **Forças Componentes**, após aprovação do nível estratégico, e não aos escalões superiores.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pág 63</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Relação entre o Conceito Preliminar da Operação (CPO) e Linha de Ação</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>O CPO representa o aprimoramento do Conceito Sumário da Linha de Ação selecionada na Decisão, aperfeiçoado pelas conclusões do Exame de Situação e do Confronto.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>O CPO corresponde basicamente ao aprimoramento do Conceito Sumário da Linha de Ação escolhida, sem incorporar conclusões do Exame de Situação ou do Confronto.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Segundo o item **5.7.4**, da página 63, o CPO decorre do aprimoramento do Conceito Sumário da LA, incorporando conclusões do Exame de Situação e do Confronto.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Pág 63</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Apresentação do Conceito Preliminar da Operação (CPO) ao Escalão Superior</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>O CPO deverá ser apresentado ao escalão superior juntamente com os principais riscos identificados, possibilitando eventual intervenção no planejamento.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>O CPO não deve ser apresentado ao escalão superior, limitando-se exclusivamente ao uso interno do EMCj e dos comandos subordinados.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Conforme o item **5.7.4**, da página 63, o CPO é apresentado ao escalão superior com os riscos identificados, permitindo eventual intervenção.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pág 63</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Conceito Preliminar da Operação (CPO) e Etapas Subsequentes do Planejamento</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>O CPO não está definitivamente pronto para a etapa seguinte do processo, devendo ser aperfeiçoado durante o desenvolvimento do Conceito da Operação.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>O CPO está completamente concluído ao final da fase em que é elaborado e servirá, sem ajustes, como base definitiva para o Conceito da Operação.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>De acordo com o item **5.7.4**, da página 63, o CPO será aperfeiçoado ao longo da etapa seguinte do planejamento, não sendo um produto finalizado.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pág 53</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Foco da Comparação do Poder de Combate (CPC)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>O foco principal será a comparação entre “capacidades antagônicas”, muito mais do que entre sistemas de armas isoladamente, o que estará ao encargo dos escalões táticos.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>O foco principal será a comparação entre “capacidades equivalentes”, muito mais do que entre sistemas de armas isoladamente, o que estará ao encargo dos escalões táticos.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.3.8.3, da página 53, o foco da Comparação do Poder de Combate recai sobre a comparação entre capacidades antagônicas, e não entre capacidades equivalentes, cabendo a análise detalhada de sistemas de armas isoladamente aos escalões táticos.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pág 53</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Critério de Comparação das Forças Combatentes</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>As comparações das forças combatentes são realizadas em termos de meios que se opõem entre si, e não por tipos genéricos de forças.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>As comparações das forças combatentes são feitas prioritariamente por tipos de forças, independentemente da oposição direta entre seus meios.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Segundo o item **5.3.8.3**, da página 53, a CPC realiza a comparação por meios que se opõem, e não por tipos.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pág 53</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Escopo da Comparação do Poder de Combate (CPC) quanto às Capacidades Logísticas</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>A CPC não abrange a comparação das capacidades logísticas e de mobilização, por não constituírem foco direto da confrontação entre forças.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cabe à CPC comparar as capacidades logísticas e de mobilização das forças em presença, como elemento central da análise.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Conforme o item **5.3.8.3**, da página 53, a CPC não tem por objetivo comparar capacidades logísticas ou de mobilização.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pág 53</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Fatores de Tempo e Distância (FTD) na Comparação do Poder de Combate (CPC)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Os FTD representam aspectos dinâmicos da situação, sendo fundamentais para o estabelecimento das Linhas de Ação e das Psb Ini.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Os FTD são elementos estáticos da situação e não influenciam diretamente o estabelecimento das Linhas de Ação.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>De acordo com o item **5.3.8.3**, da página 53, os Fatores de Tempo e Espaço são aspectos dinâmicos essenciais à definição das LA e das Psb Ini.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pág. 211</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>177</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Gerenciamento de Crise de Imagem</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Em caso de comprometimento da imagem, o Comandante Operacional decide no seu nível, após consultar o escalão superior, sobre o uso de ferramentas de informação.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>O Comandante Operacional tem autonomia total para gerenciar crises de imagem, sendo vedada a consulta ao escalão superior para não demonstrar insegurança.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>De acordo com o **item 9, alínea "d"**, o Cmt Op decide no seu nível, depois de consultado o escalão superior.</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Desenho Operacional - Variantes</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>As variantes são opções ao plano básico e podem incluir mudanças de prioridades e de organização de unidades na estrutura de comando ou na própria natureza da operação. Por propiciarem flexibilidade ao antecipar situações que poderiam alterar o plano básico, as variantes normalmente são decisivas para o resultado da operação geral, pois permitem atuar mais rapidamente do que o adversário para explorar uma situação resultante (emergente) da situação operacional.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>As variantes são opções ao plano básico e podem incluir mudanças de prioridades e de organização de unidades na estrutura de comando ou na própria natureza da operação. Por propiciarem rigidez ao antecipar situações que poderiam alterar o plano básico, as variantes normalmente não são decisivas para o resultado da operação geral, pois permitem atuar mais rapidamente do que o adversário para explorar uma situação resultante (emergente) da situação operacional.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Conforme o **item 4.11**, da página 211, as variantes existem para proporcionar **flexibilidade** e não rigidez ao plano básico, sendo rotas alternativas para alcançar o mesmo EFD Op.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pág. 208</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Desenho Operacional – Pontos Decisivos (PD)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Os PD são descritos como efeitos e deduzidos durante as primeiras fases do Exame de Situação do EMCj. Normalmente, têm sua origem a partir das análises dos Centros de Gravidades (próprio e do inimigo), do enunciado da missão e dos Objetivos Operacionais.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Os PD são descritos como ações e deduzidos durante as primeiras fases do Exame de Situação do EMCj. Normalmente, têm sua origem a partir das análises dos Centros de Gravidades (próprio e do inimigo), do enunciado da missão e dos Objetivos Operacionais.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Segundo o **item 4.5.2**, da página 208, os Pontos Decisivos são descritos como efeitos e não ações e deduzidos nas fases iniciais do Exame de Situação do EMCj, a partir da análise dos Centros de Gravidade, da missão e dos Objetivos Operacionais.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Pág. 209</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Desenho Operacional – Ponto de Decisão</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>O Ponto de Decisão é aquele no qual se espera que o Comandante tome uma decisão crítica concernente ao andamento da operação/campanha. Pode estar relacionado a uma variante ou à transição de fases em uma operação/campanha. Mais de um Ponto de Decisão pode ser identificado durante a fase de planejamento e se torna um elemento-chave para o Comandante durante a fase de execução.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>O Ponto de Decisão é aquele no qual se espera que o Comandante tome uma decisão rotineira concernente ao andamento da operação/campanha. Pode estar relacionado a uma variante ou à transição de fases em uma operação/campanha. Mais de um Ponto de Decisão pode ser identificado durante a fase de planejamento e se torna um elemento-chave para o Comandante durante a fase de execução.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Conforme o **item 4.7**, da página 209, o Ponto de Decisão refere-se à tomada de uma **decisão crítica** pelo Comandante, e não a decisões rotineiras.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pág. 209</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Desenho Operacional – Ponto Culminante</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>O Ponto Culminante é o ponto de uma operação, a partir do qual a força deixa de ter capacidade para continuar as operações com sucesso. Este conceito tem aplicação na ofensiva e na defensiva.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>O Ponto Culminante é o ponto de uma operação, a partir do qual a força deixa de ter capacidade para continuar as operações com sucesso. Este conceito tem aplicação na ofensiva e na defensiva.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>De acordo com o **item 4.8.1**, da página 209, o Ponto Culminante marca o momento em que a força perde a capacidade de continuar as operações com sucesso, sendo um conceito válido tanto na ofensiva quanto na defensiva.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pág. 209</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Desenho Operacional – Ponto Culminante</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>O Ponto Culminante é o ponto de uma operação, a partir do qual a força deixa de ter capacidade para continuar as operações com sucesso. Este conceito tem aplicação na ofensiva e na defensiva.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>O Ponto Culminante é o ponto de uma operação, a partir do qual a força atinge sua máxima capacidade para continuar as operações com sucesso. Este conceito tem aplicação na ofensiva e na defensiva.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>De acordo com o **item 4.8.1**, da página 209, o Ponto Culminante caracteriza-se pela **perda** da capacidade de continuar as operações com sucesso, e não pelo seu ápice.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4.2.5</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Desenho Operacional - Fase de identificação do EFD Op</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>O EFD Op deve ser identificado durante a 1ª fase do Exm Sit Op, quando da avaliação do ambiente operacional.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>O EFD Op deve ser identificado apenas durante a 2ª fase do Exm Sit Op, após a definição das Linhas de Ação.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Conforme o item 4.2.5, o EFD Op deve ser identificado durante a 1ª fase do Exm Sit Op.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>4.3.3</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Desenho Operacional - Condução de Campanha e Poder Militar</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Uma Campanha dificilmente será conduzida com base exclusivamente na expressão do Poder Militar, podendo formular objetivos que contribuam para outras expressões do Poder Nacional.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Uma Campanha normalmente será conduzida com base exclusivamente na expressão do Poder Militar, isolada das demais expressões do Poder Nacional.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Segundo o item 4.3.3, uma Campanha dificilmente será conduzida com base exclusivamente na expressão do Poder Militar.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>4.4.4</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Desenho Operacional - Centros de Gravidade (CG) nos níveis Op e Tát</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Nos níveis operacional e tático, dentro de um ambiente de Guerra Convencional, normalmente os CG são forças militares específicas.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Nos níveis operacional e tático, os CG são sempre e invariavelmente forças militares específicas, independente do contexto.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>De acordo com o item 4.4.4, nos níveis operacional e tático, normalmente, os CG são forças militares específicas.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4.6.1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Desenho Operacional - Mensuração de Efeitos vs Ações</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Um efeito deve ser mensurável por meio de medidas e indicadores, expressando uma situação desejada no futuro.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Uma ação deve ser mensurável por meio de medidas e indicadores, enquanto os efeitos são subjetivos e não quantificáveis.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Conforme o item 4.6.1, é o efeito que deve ser mensurável por meio de medidas e indicadores.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Desenho Operacional - Definição de Ponto de Decisão</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Ponto de Decisão é o ponto no qual se espera que o Comandante tome uma decisão crítica concernente ao andamento da operação/campanha.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Ponto de Decisão é um local geográfico fixo onde as tropas descansam, sem relação com decisões críticas do Comandante sobre o andamento da campanha.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Segundo o item 4.7, o Ponto de Decisão é onde se espera que o Comandante tome uma decisão crítica.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>4.8.2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Desenho Operacional - Ponto Culminante na Ofensiva</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Em uma postura ofensiva, Ponto Culminante é o ponto em que a continuação do ataque não é mais possível.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Em uma postura ofensiva, Ponto Culminante é o ponto em que a continuação do ataque ainda é possível e recomendada.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Conforme o item 4.8.2, na ofensiva, o Ponto Culminante é onde a continuação do ataque não é mais possível.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>4.9.1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Desenho Operacional - Quantidade e Agrupamento de Linhas de Operação</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Em um desenho operacional, pode haver tantas L Op quanto o EMCj considerar necessário e elas podem ser agrupadas por atividades ou áreas geográficas.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Em um desenho operacional, existe um número fixo e limitado de L Op, que não podem ser agrupadas por atividades ou áreas geográficas.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>De acordo com o item 4.9.1, pode haver tantas L Op quanto necessário, agrupadas por atividades ou áreas geográficas.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Desenho Operacional - Relação entre Linhas de Esforço e de Operação</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>As Linhas de Esforço possuem uma lógica de propósito/causa e efeito que visam a cooperar com as Linhas de Operação.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>As Linhas de Operação possuem uma lógica de propósito/causa e efeito que visam a cooperar com as Linhas de Esforço.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Segundo o item 4.10, são as Linhas de Esforço que visam a cooperar com as Linhas de Operação.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Desenho Operacional -  Desenho Operacional - Importância das Variantes</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>As variantes normalmente são decisivas para o resultado da operação geral, pois permitem atuar mais rapidamente do que o adversário.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>As variantes são planejamentos secundários irrelevantes que raramente influenciam o resultado da operação geral.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Conforme o item 4.11, as variantes normalmente são decisivas para o resultado da operação geral.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Desenho Operacional - Duração da Pausa Operacional</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Normalmente, uma Pausa Operacional é o mais curta possível, de modo a não permitir a iniciativa e a liberdade de ação ao inimigo.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Normalmente, uma Pausa Operacional é a mais longa possível, para garantir o descanso total das tropas independente da reação inimiga.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>De acordo com o item 4.12, a Pausa Operacional é normalmente o mais curta possível.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Definição de Arte Operacional</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>A arte operacional consiste na concepção e no planejamento contínuo e sistêmico de operações e campanhas militares sincronizadas que produzirão efeitos essenciais para a consecução dos objetivos operacionais.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>A arte operacional restringe-se à execução tática de combates isolados, sem vínculo com o planejamento contínuo ou com a produção de efeitos para objetivos operacionais.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>De acordo com o item 1.1, a arte operacional consiste na concepção e no planejamento contínuo e sistêmico de operações e campanhas militares sincronizadas.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Desenho Operacional</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>O Desenho Operacional é uma ferramenta gráfica fundamental para articular a abstrata arte operacional em uma abordagem concreta, sendo a materialização da Abordagem Operacional.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>O Desenho Operacional é uma ferramenta exclusivamente textual e narrativa, utilizada para substituir a Abordagem Operacional em vez de materializá-la.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Segundo o item 1.6, o Desenho Operacional apresenta-se como uma ferramenta gráfica fundamental para articular a abstrata arte operacional em uma abordagem concreta.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Fatores de Decisão (Tempo vs Espaço)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Diferente do tempo perdido, que nunca pode ser recuperado, o espaço cedido pode ser reconquistado e os efetivos podem ser recompletados.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Tanto o tempo perdido quanto o espaço cedido podem ser recuperados com a mesma facilidade durante uma campanha militar.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Conforme o item 2.2, o tempo perdido nunca pode ser recuperado, ao passo que o espaço cedido pode ser reconquistado.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2.7.1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Fator Força</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>O fator Força não consiste somente dos aspectos militares, mas também de todos os apoios e os aspectos civis, estando tudo sob a responsabilidade do Comandante Operacional.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>O fator Força refere-se exclusivamente aos meios militares combatentes (navais, terrestres e aéreos), excluindo aspectos civis e de apoio da responsabilidade do Comandante.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>De acordo com o item 2.7.1, o fator Força abrange aspectos militares, todos os apoios e aspectos civis sob responsabilidade do Comandante Operacional.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>4.2.4</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Estado Final Desejado Operacional (EFD Op)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>O EFD Op constitui uma descrição sucinta das condições que, uma vez alcançadas, permitirão assumir que a missão foi cumprida e que o grau de violência militar deixará de ter influência significativa.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>O EFD Op é o ponto inicial da campanha, descrevendo os recursos disponíveis antes do início das hostilidades, sem relação com o cumprimento da missão.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Conforme o item 4.2.4, o EFD Op decorre do EFD Político e descreve as condições que indicam que a missão foi efetivamente cumprida.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4.4.1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Centro de Gravidade (CG)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>O foco do Exame de Situação é identificar o(s) CG do inimigo e suas Vulnerabilidades Críticas (VC), concentrando poder de combate superior para explorá-las.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>O foco do Exame de Situação deve ser evitar o Centro de Gravidade inimigo e atacar apenas suas forças periféricas irrelevantes, ignorando as vulnerabilidades críticas.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Segundo o item 4.4.1, o foco é identificar o CG do inimigo e suas Vulnerabilidades Críticas para concentrar poder de combate sobre elas.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>4.5.1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Ponto Decisivo (PD)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Um Ponto Decisivo representa uma condição, local, evento ou sistema sem o qual não se progride na Operação, permitindo obter vantagem relevante sobre o inimigo.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Um Ponto Decisivo é qualquer objetivo secundário que, mesmo não sendo alcançado, permite a progressão normal da campanha sem afetar o resultado final.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Conforme o item 4.5.1, o Ponto Decisivo representa uma condição sem a qual não se progride na Operação/Campanha.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4.8.1</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Ponto Culminante</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Ponto Culminante é o ponto de uma operação a partir do qual a força deixa de ter capacidade para continuar as operações com sucesso, conceito aplicável à ofensiva e à defensiva.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>O Ponto Culminante refere-se exclusivamente ao momento de vitória máxima na ofensiva, não se aplicando a situações defensivas ou de perda de capacidade.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>De acordo com o item 4.8.1, o Ponto Culminante é onde a força deixa de ter capacidade para continuar as operações com sucesso.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Desenho Operacional vs Linha de Ação</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>O Desenho Operacional não é uma Linha de Ação, mas sim um arquétipo (esqueleto) capaz de abarcar várias linhas de ação.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>O Desenho Operacional é sinônimo de Linha de Ação, devendo detalhar a execução sincronizada e rígida das manobras táticas desde o início.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Segundo o item 5.10, o desenho não é uma Linha de Ação, constituindo-se em um arquétipo capaz de abarcar várias linhas de ação.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Pág. 27</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Documentos de Planejamento Político e Estratégico</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>O Comandante Supremo é o responsável por expedir a Diretriz Presidencial de Emprego de Defesa (DPED).</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>O Comandante Supremo é o responsável por expedir a Diretriz de Planejamento Estratégico Militar (DPEM).</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Conforme o **item 2.9.1, da Página 27**, o Comandante Supremo emite a DPED, enquanto a DPEM é emitida pelo Chefe do Estado-Maior Conjunto das Forças Armadas.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Pág. 25</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Adjudicação de Meios</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>O Ministro da Defesa é o responsável por adjudicar meios aos Comandos Operacionais, considerando as necessidades apresentadas.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>O EMCFA é o responsável por adjudicar meios para as operações.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>De acordo com o **item 2.8.2, alínea 'f', da Página 25**, compete ao Ministro da Defesa adjudicar meios aos Comandos Operacionais.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Pág. 24</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Conceito Preliminar da Operação (CPO)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>O CPO deverá ser apresentado ao escalão superior que emitiu as diretrizes para o planejamento ora em elaboração, constituindo a base do processo.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>O CPO é um documento de consumo exclusivo do nível tático, não necessitando ser apresentado ao escalão superior que emitiu as diretrizes.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Conforme o **item 2.7.2, da Página 24**, os exames de situação táticos iniciam-se a partir da expedição do CPO, que se constitui na base de todo o processo e reflete a decisão do comandante em consonância com o escalão superior.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
